--- a/services/web/input/clients.xlsx
+++ b/services/web/input/clients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="206">
   <si>
     <t>key</t>
   </si>
@@ -34,607 +34,604 @@
     <t>creationDate</t>
   </si>
   <si>
-    <t>Fund Mccoy-Green Capital</t>
-  </si>
-  <si>
-    <t>Fund Warren, Johnson and Calhoun Holdings</t>
-  </si>
-  <si>
-    <t>Fund Castro, Young and Bridges Investments</t>
-  </si>
-  <si>
-    <t>Fund Clark-Wong Fund</t>
-  </si>
-  <si>
-    <t>Fund Garcia Inc Investments</t>
-  </si>
-  <si>
-    <t>Fund Jefferson-Flowers Capital</t>
-  </si>
-  <si>
-    <t>Fund Dominguez and Sons Investments</t>
-  </si>
-  <si>
-    <t>Fund Jacobson Group Capital</t>
-  </si>
-  <si>
-    <t>Fund Tanner, Nielsen and West Investments</t>
-  </si>
-  <si>
-    <t>Fund Obrien LLC Capital</t>
-  </si>
-  <si>
-    <t>Fund Hardin-Riley Holdings</t>
-  </si>
-  <si>
-    <t>Fund Mays-Atkinson Capital</t>
-  </si>
-  <si>
-    <t>Fund Barnes, Lyons and Allen Fund</t>
-  </si>
-  <si>
-    <t>Fund Martinez Inc Holdings</t>
-  </si>
-  <si>
-    <t>Fund Peterson-Garcia Holdings</t>
-  </si>
-  <si>
-    <t>Fund Martin Group Holdings</t>
-  </si>
-  <si>
-    <t>Fund Christian Inc Fund</t>
-  </si>
-  <si>
-    <t>Fund Hall-Taylor Investments</t>
-  </si>
-  <si>
-    <t>Fund Mckee Ltd Investments</t>
-  </si>
-  <si>
-    <t>Fund Lewis PLC Investments</t>
-  </si>
-  <si>
-    <t>Fund Huber LLC Capital</t>
-  </si>
-  <si>
-    <t>Fund Williams, Gonzalez and Lane Capital</t>
-  </si>
-  <si>
-    <t>Fund Warner-Moore Capital</t>
-  </si>
-  <si>
-    <t>Fund Smith, Benson and Johnson Capital</t>
-  </si>
-  <si>
-    <t>Fund Nash PLC Capital</t>
-  </si>
-  <si>
-    <t>Fund Ware-House Investments</t>
-  </si>
-  <si>
-    <t>Fund Bowen, Reyes and Espinoza Fund</t>
-  </si>
-  <si>
-    <t>Fund Lozano-Peterson Fund</t>
-  </si>
-  <si>
-    <t>Fund Jensen, Gomez and Tanner Fund</t>
-  </si>
-  <si>
-    <t>Fund Cruz-Walters Investments</t>
-  </si>
-  <si>
-    <t>Fund Vega PLC Fund</t>
-  </si>
-  <si>
-    <t>Fund White Ltd Investments</t>
-  </si>
-  <si>
-    <t>Fund Compton and Sons Capital</t>
-  </si>
-  <si>
-    <t>Fund Williams, Nelson and Smith Investments</t>
-  </si>
-  <si>
-    <t>Fund Luna, Rodriguez and Howard Investments</t>
-  </si>
-  <si>
-    <t>Fund Chavez PLC Capital</t>
-  </si>
-  <si>
-    <t>Fund Stanton, Murphy and Lutz Capital</t>
-  </si>
-  <si>
-    <t>Fund Adams, Wiggins and Nguyen Capital</t>
-  </si>
-  <si>
-    <t>Fund Larson, Pace and Kim Investments</t>
-  </si>
-  <si>
-    <t>Fund Meyers, Walker and Hart Investments</t>
-  </si>
-  <si>
-    <t>ashleyramirez@example.org</t>
-  </si>
-  <si>
-    <t>poolelindsay@example.org</t>
-  </si>
-  <si>
-    <t>petersdana@example.com</t>
-  </si>
-  <si>
-    <t>jeffrey78@example.com</t>
-  </si>
-  <si>
-    <t>millsmelissa@example.com</t>
-  </si>
-  <si>
-    <t>stokescassandra@example.net</t>
-  </si>
-  <si>
-    <t>kimberlywise@example.com</t>
-  </si>
-  <si>
-    <t>kdavis@example.net</t>
-  </si>
-  <si>
-    <t>frank56@example.com</t>
-  </si>
-  <si>
-    <t>joshua12@example.org</t>
-  </si>
-  <si>
-    <t>tararice@example.org</t>
-  </si>
-  <si>
-    <t>melodymcclure@example.org</t>
-  </si>
-  <si>
-    <t>cmoore@example.com</t>
-  </si>
-  <si>
-    <t>sarah36@example.net</t>
-  </si>
-  <si>
-    <t>milleranna@example.org</t>
-  </si>
-  <si>
-    <t>zreyes@example.org</t>
-  </si>
-  <si>
-    <t>kimberly68@example.org</t>
-  </si>
-  <si>
-    <t>pittmanrebecca@example.net</t>
-  </si>
-  <si>
-    <t>eric13@example.org</t>
-  </si>
-  <si>
-    <t>maciasjonathan@example.org</t>
-  </si>
-  <si>
-    <t>taylortimothy@example.net</t>
-  </si>
-  <si>
-    <t>victoria10@example.net</t>
-  </si>
-  <si>
-    <t>sheparddevin@example.com</t>
-  </si>
-  <si>
-    <t>waltercarey@example.org</t>
-  </si>
-  <si>
-    <t>catherinewest@example.net</t>
-  </si>
-  <si>
-    <t>xdoyle@example.net</t>
-  </si>
-  <si>
-    <t>gailhenry@example.org</t>
-  </si>
-  <si>
-    <t>diazmary@example.com</t>
-  </si>
-  <si>
-    <t>tami52@example.org</t>
-  </si>
-  <si>
-    <t>kevinwilliams@example.org</t>
-  </si>
-  <si>
-    <t>ppetty@example.com</t>
-  </si>
-  <si>
-    <t>okim@example.org</t>
-  </si>
-  <si>
-    <t>schmidtnicholas@example.org</t>
-  </si>
-  <si>
-    <t>angelamorris@example.org</t>
-  </si>
-  <si>
-    <t>jerrymontes@example.com</t>
-  </si>
-  <si>
-    <t>melissa38@example.org</t>
-  </si>
-  <si>
-    <t>monica95@example.net</t>
-  </si>
-  <si>
-    <t>christysilva@example.com</t>
-  </si>
-  <si>
-    <t>shepherddanielle@example.com</t>
-  </si>
-  <si>
-    <t>barbara13@example.org</t>
-  </si>
-  <si>
-    <t>+1-007-869-9524</t>
-  </si>
-  <si>
-    <t>865-269-9195x9049</t>
-  </si>
-  <si>
-    <t>001-243-079-2471</t>
-  </si>
-  <si>
-    <t>468.473.2307x0642</t>
-  </si>
-  <si>
-    <t>+1-171-622-5519x5727</t>
-  </si>
-  <si>
-    <t>667-282-6608</t>
-  </si>
-  <si>
-    <t>613.118.2350</t>
-  </si>
-  <si>
-    <t>7567602249</t>
-  </si>
-  <si>
-    <t>012-130-8913x43464</t>
-  </si>
-  <si>
-    <t>001-299-809-6305x808</t>
-  </si>
-  <si>
-    <t>929-889-8135x93005</t>
-  </si>
-  <si>
-    <t>+1-031-570-4278x53601</t>
-  </si>
-  <si>
-    <t>832.139.1556x168</t>
-  </si>
-  <si>
-    <t>446-800-4021x741</t>
-  </si>
-  <si>
-    <t>530.621.9499x3494</t>
-  </si>
-  <si>
-    <t>936-965-6817</t>
-  </si>
-  <si>
-    <t>5546593739</t>
-  </si>
-  <si>
-    <t>001-244-317-8386x3094</t>
-  </si>
-  <si>
-    <t>135-804-5676x8744</t>
-  </si>
-  <si>
-    <t>5480173987</t>
-  </si>
-  <si>
-    <t>488.968.5309</t>
-  </si>
-  <si>
-    <t>(644)016-2340</t>
-  </si>
-  <si>
-    <t>498-987-3840x18161</t>
-  </si>
-  <si>
-    <t>(984)079-3493</t>
-  </si>
-  <si>
-    <t>+1-633-590-6981x70986</t>
-  </si>
-  <si>
-    <t>620.756.5173</t>
-  </si>
-  <si>
-    <t>832-462-5455</t>
-  </si>
-  <si>
-    <t>703-675-5862x9946</t>
-  </si>
-  <si>
-    <t>(754)657-0487x53244</t>
-  </si>
-  <si>
-    <t>(877)035-5143</t>
-  </si>
-  <si>
-    <t>+1-108-184-9990x28582</t>
-  </si>
-  <si>
-    <t>8582081409</t>
-  </si>
-  <si>
-    <t>3610940873</t>
-  </si>
-  <si>
-    <t>(246)350-0453</t>
-  </si>
-  <si>
-    <t>1202506142</t>
-  </si>
-  <si>
-    <t>275-512-6267</t>
-  </si>
-  <si>
-    <t>+1-672-315-2305x9416</t>
-  </si>
-  <si>
-    <t>+1-889-318-8222x459</t>
-  </si>
-  <si>
-    <t>+1-444-054-3580x0827</t>
-  </si>
-  <si>
-    <t>000-894-8555</t>
+    <t>Fund Williams-Mcdonald Fund</t>
+  </si>
+  <si>
+    <t>Fund Watson-Hunt Fund</t>
+  </si>
+  <si>
+    <t>Fund Barron, Gonzalez and Bennett Holdings</t>
+  </si>
+  <si>
+    <t>Fund Chambers, Chaney and Robinson Fund</t>
+  </si>
+  <si>
+    <t>Fund Lang, Wu and Little Capital</t>
+  </si>
+  <si>
+    <t>Fund Gamble LLC Investments</t>
+  </si>
+  <si>
+    <t>Fund Sims PLC Capital</t>
+  </si>
+  <si>
+    <t>Fund Gomez-Rivera Capital</t>
+  </si>
+  <si>
+    <t>Fund Ramos LLC Investments</t>
+  </si>
+  <si>
+    <t>Fund Cook Group Holdings</t>
+  </si>
+  <si>
+    <t>Fund Mitchell, Jenkins and Collier Fund</t>
+  </si>
+  <si>
+    <t>Fund Taylor LLC Fund</t>
+  </si>
+  <si>
+    <t>Fund Obrien Group Fund</t>
+  </si>
+  <si>
+    <t>Fund Mathis and Sons Investments</t>
+  </si>
+  <si>
+    <t>Fund Garcia, Harris and Brennan Investments</t>
+  </si>
+  <si>
+    <t>Fund Delacruz, Duran and Estes Holdings</t>
+  </si>
+  <si>
+    <t>Fund Wang-Jones Capital</t>
+  </si>
+  <si>
+    <t>Fund Lee-Jones Fund</t>
+  </si>
+  <si>
+    <t>Fund Paul-Smith Capital</t>
+  </si>
+  <si>
+    <t>Fund Thomas-Bridges Investments</t>
+  </si>
+  <si>
+    <t>Fund Rodriguez Ltd Investments</t>
+  </si>
+  <si>
+    <t>Fund Cooper and Sons Investments</t>
+  </si>
+  <si>
+    <t>Fund Johnson-Wong Fund</t>
+  </si>
+  <si>
+    <t>Fund White, Chen and Lopez Investments</t>
+  </si>
+  <si>
+    <t>Fund Velasquez Ltd Investments</t>
+  </si>
+  <si>
+    <t>Fund Johnson-Gallegos Investments</t>
+  </si>
+  <si>
+    <t>Fund Bryant, Rodriguez and Lee Fund</t>
+  </si>
+  <si>
+    <t>Fund Reyes, Holmes and Torres Fund</t>
+  </si>
+  <si>
+    <t>Fund Garcia, Owen and Johnson Fund</t>
+  </si>
+  <si>
+    <t>Fund Alvarado, Elliott and Martin Fund</t>
+  </si>
+  <si>
+    <t>Fund Chase, Suarez and Flores Investments</t>
+  </si>
+  <si>
+    <t>Fund Carroll, Campos and Yoder Fund</t>
+  </si>
+  <si>
+    <t>Fund Drake and Sons Fund</t>
+  </si>
+  <si>
+    <t>Fund Snyder, Wilson and Smith Fund</t>
+  </si>
+  <si>
+    <t>Fund Lam, Vasquez and Martinez Holdings</t>
+  </si>
+  <si>
+    <t>Fund Evans-Evans Capital</t>
+  </si>
+  <si>
+    <t>Fund Harvey, Ross and Thomas Capital</t>
+  </si>
+  <si>
+    <t>Fund Mcpherson-Thompson Holdings</t>
+  </si>
+  <si>
+    <t>Fund Simon, Stafford and Mckenzie Fund</t>
+  </si>
+  <si>
+    <t>Fund Crawford Group Fund</t>
+  </si>
+  <si>
+    <t>uwilliams@example.org</t>
+  </si>
+  <si>
+    <t>traciebyrd@example.net</t>
+  </si>
+  <si>
+    <t>pjensen@example.net</t>
+  </si>
+  <si>
+    <t>saraortiz@example.com</t>
+  </si>
+  <si>
+    <t>dannycollins@example.com</t>
+  </si>
+  <si>
+    <t>jacqueline50@example.net</t>
+  </si>
+  <si>
+    <t>andersonjeremiah@example.com</t>
+  </si>
+  <si>
+    <t>bianca65@example.org</t>
+  </si>
+  <si>
+    <t>wgreen@example.com</t>
+  </si>
+  <si>
+    <t>kathleen34@example.com</t>
+  </si>
+  <si>
+    <t>andrewsshelly@example.com</t>
+  </si>
+  <si>
+    <t>xpaul@example.org</t>
+  </si>
+  <si>
+    <t>frank41@example.com</t>
+  </si>
+  <si>
+    <t>villarrealnancy@example.net</t>
+  </si>
+  <si>
+    <t>luiswilson@example.org</t>
+  </si>
+  <si>
+    <t>howellwilliam@example.org</t>
+  </si>
+  <si>
+    <t>craigtammy@example.com</t>
+  </si>
+  <si>
+    <t>dgarner@example.net</t>
+  </si>
+  <si>
+    <t>jenkinscaitlin@example.net</t>
+  </si>
+  <si>
+    <t>josevaughn@example.com</t>
+  </si>
+  <si>
+    <t>lfrazier@example.com</t>
+  </si>
+  <si>
+    <t>kenneth27@example.net</t>
+  </si>
+  <si>
+    <t>ernestmorris@example.org</t>
+  </si>
+  <si>
+    <t>troberson@example.org</t>
+  </si>
+  <si>
+    <t>watsonlogan@example.net</t>
+  </si>
+  <si>
+    <t>loriflores@example.net</t>
+  </si>
+  <si>
+    <t>craig13@example.org</t>
+  </si>
+  <si>
+    <t>turnermatthew@example.com</t>
+  </si>
+  <si>
+    <t>johnsonjared@example.com</t>
+  </si>
+  <si>
+    <t>brian79@example.com</t>
+  </si>
+  <si>
+    <t>lmoon@example.org</t>
+  </si>
+  <si>
+    <t>davisrobert@example.com</t>
+  </si>
+  <si>
+    <t>michaellozano@example.org</t>
+  </si>
+  <si>
+    <t>ariel94@example.com</t>
+  </si>
+  <si>
+    <t>ubenton@example.org</t>
+  </si>
+  <si>
+    <t>odavis@example.net</t>
+  </si>
+  <si>
+    <t>fosterlaura@example.org</t>
+  </si>
+  <si>
+    <t>erinmorales@example.net</t>
+  </si>
+  <si>
+    <t>larsonaaron@example.com</t>
+  </si>
+  <si>
+    <t>ichavez@example.com</t>
+  </si>
+  <si>
+    <t>767-878-2365</t>
+  </si>
+  <si>
+    <t>510-298-6890</t>
+  </si>
+  <si>
+    <t>001-259-140-4735x14675</t>
+  </si>
+  <si>
+    <t>552.746.8297</t>
+  </si>
+  <si>
+    <t>157-803-3543x1146</t>
+  </si>
+  <si>
+    <t>048.437.4045x6971</t>
+  </si>
+  <si>
+    <t>(048)022-3282x3052</t>
+  </si>
+  <si>
+    <t>8327222764</t>
+  </si>
+  <si>
+    <t>+1-020-043-7791</t>
+  </si>
+  <si>
+    <t>374.786.6819x7531</t>
+  </si>
+  <si>
+    <t>216.664.2348x72833</t>
+  </si>
+  <si>
+    <t>7358707173</t>
+  </si>
+  <si>
+    <t>453-550-9302x6800</t>
+  </si>
+  <si>
+    <t>422.425.0380</t>
+  </si>
+  <si>
+    <t>(153)944-9987x994</t>
+  </si>
+  <si>
+    <t>(662)851-6846x332</t>
+  </si>
+  <si>
+    <t>338-587-1787</t>
+  </si>
+  <si>
+    <t>542.767.0562x063</t>
+  </si>
+  <si>
+    <t>671-771-6153x03031</t>
+  </si>
+  <si>
+    <t>6299701113</t>
+  </si>
+  <si>
+    <t>001-233-860-7548x238</t>
+  </si>
+  <si>
+    <t>+1-728-833-2397x2264</t>
+  </si>
+  <si>
+    <t>210-597-9175x01569</t>
+  </si>
+  <si>
+    <t>440-687-0343x43871</t>
+  </si>
+  <si>
+    <t>141.880.2652x1525</t>
+  </si>
+  <si>
+    <t>(371)073-1834x54083</t>
+  </si>
+  <si>
+    <t>(167)184-5506</t>
+  </si>
+  <si>
+    <t>+1-467-153-6910x3296</t>
+  </si>
+  <si>
+    <t>160.896.1908x7787</t>
+  </si>
+  <si>
+    <t>(745)891-0804</t>
+  </si>
+  <si>
+    <t>(116)233-9289</t>
+  </si>
+  <si>
+    <t>061.533.8541x4330</t>
+  </si>
+  <si>
+    <t>+1-128-648-3386</t>
+  </si>
+  <si>
+    <t>357.880.7122x626</t>
+  </si>
+  <si>
+    <t>(363)814-7133x48517</t>
+  </si>
+  <si>
+    <t>749.596.2437x9020</t>
+  </si>
+  <si>
+    <t>867.969.7825</t>
+  </si>
+  <si>
+    <t>+1-779-143-6433</t>
+  </si>
+  <si>
+    <t>(337)272-7838x178</t>
+  </si>
+  <si>
+    <t>493.467.0107</t>
+  </si>
+  <si>
+    <t>PE&amp;DEBT</t>
+  </si>
+  <si>
+    <t>PJ</t>
   </si>
   <si>
     <t>Funds of funds</t>
   </si>
   <si>
-    <t>PE&amp;DEBT</t>
-  </si>
-  <si>
     <t>Real Estate</t>
   </si>
   <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>BS</t>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>PY</t>
   </si>
   <si>
     <t>IT</t>
   </si>
   <si>
-    <t>LS</t>
+    <t>SR</t>
   </si>
   <si>
     <t>GR</t>
   </si>
   <si>
-    <t>BZ</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>LK</t>
-  </si>
-  <si>
-    <t>PY</t>
-  </si>
-  <si>
-    <t>FJ</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>PW</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
-    <t>IQ</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>03/07/2023 23:59:49</t>
-  </si>
-  <si>
-    <t>08/07/2023 10:31:51</t>
-  </si>
-  <si>
-    <t>02/07/2023 06:21:44</t>
-  </si>
-  <si>
-    <t>05/07/2023 18:20:43</t>
-  </si>
-  <si>
-    <t>09/07/2023 22:48:50</t>
-  </si>
-  <si>
-    <t>06/07/2023 21:01:28</t>
-  </si>
-  <si>
-    <t>01/07/2023 10:08:09</t>
-  </si>
-  <si>
-    <t>09/07/2023 19:23:54</t>
-  </si>
-  <si>
-    <t>06/07/2023 20:11:19</t>
-  </si>
-  <si>
-    <t>05/07/2023 01:01:22</t>
-  </si>
-  <si>
-    <t>02/07/2023 12:50:38</t>
-  </si>
-  <si>
-    <t>01/07/2023 09:33:52</t>
-  </si>
-  <si>
-    <t>06/07/2023 19:50:10</t>
-  </si>
-  <si>
-    <t>09/07/2023 11:59:04</t>
-  </si>
-  <si>
-    <t>05/07/2023 18:45:14</t>
-  </si>
-  <si>
-    <t>06/07/2023 04:41:11</t>
-  </si>
-  <si>
-    <t>07/07/2023 08:03:16</t>
-  </si>
-  <si>
-    <t>04/07/2023 16:38:55</t>
-  </si>
-  <si>
-    <t>05/07/2023 18:01:29</t>
-  </si>
-  <si>
-    <t>01/07/2023 08:21:26</t>
-  </si>
-  <si>
-    <t>02/07/2023 19:21:00</t>
-  </si>
-  <si>
-    <t>10/07/2023 17:27:52</t>
-  </si>
-  <si>
-    <t>10/07/2023 19:33:29</t>
-  </si>
-  <si>
-    <t>03/07/2023 06:01:09</t>
-  </si>
-  <si>
-    <t>10/07/2023 14:12:39</t>
-  </si>
-  <si>
-    <t>05/07/2023 23:57:05</t>
-  </si>
-  <si>
-    <t>08/07/2023 19:21:39</t>
-  </si>
-  <si>
-    <t>01/07/2023 08:27:56</t>
-  </si>
-  <si>
-    <t>11/07/2023 18:56:28</t>
-  </si>
-  <si>
-    <t>09/07/2023 09:09:02</t>
-  </si>
-  <si>
-    <t>04/07/2023 15:52:18</t>
-  </si>
-  <si>
-    <t>01/07/2023 17:13:01</t>
-  </si>
-  <si>
-    <t>09/07/2023 03:16:49</t>
-  </si>
-  <si>
-    <t>07/07/2023 13:19:04</t>
-  </si>
-  <si>
-    <t>03/07/2023 07:36:40</t>
-  </si>
-  <si>
-    <t>12/07/2023 01:58:25</t>
-  </si>
-  <si>
-    <t>06/07/2023 12:41:38</t>
-  </si>
-  <si>
-    <t>06/07/2023 12:24:07</t>
-  </si>
-  <si>
-    <t>05/07/2023 08:26:21</t>
-  </si>
-  <si>
-    <t>04/07/2023 07:12:24</t>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>04/07/2023 19:51:39</t>
+  </si>
+  <si>
+    <t>06/07/2023 00:38:58</t>
+  </si>
+  <si>
+    <t>10/07/2023 07:54:58</t>
+  </si>
+  <si>
+    <t>07/07/2023 01:20:43</t>
+  </si>
+  <si>
+    <t>01/07/2023 16:19:10</t>
+  </si>
+  <si>
+    <t>06/07/2023 18:34:06</t>
+  </si>
+  <si>
+    <t>07/07/2023 10:40:26</t>
+  </si>
+  <si>
+    <t>03/07/2023 21:21:43</t>
+  </si>
+  <si>
+    <t>07/07/2023 16:16:53</t>
+  </si>
+  <si>
+    <t>13/07/2023 02:57:07</t>
+  </si>
+  <si>
+    <t>13/07/2023 14:32:14</t>
+  </si>
+  <si>
+    <t>09/07/2023 20:03:16</t>
+  </si>
+  <si>
+    <t>07/07/2023 16:14:42</t>
+  </si>
+  <si>
+    <t>10/07/2023 13:58:46</t>
+  </si>
+  <si>
+    <t>08/07/2023 16:49:00</t>
+  </si>
+  <si>
+    <t>09/07/2023 03:02:03</t>
+  </si>
+  <si>
+    <t>01/07/2023 07:10:58</t>
+  </si>
+  <si>
+    <t>06/07/2023 18:50:39</t>
+  </si>
+  <si>
+    <t>12/07/2023 09:12:13</t>
+  </si>
+  <si>
+    <t>03/07/2023 05:20:06</t>
+  </si>
+  <si>
+    <t>03/07/2023 10:58:07</t>
+  </si>
+  <si>
+    <t>06/07/2023 09:15:14</t>
+  </si>
+  <si>
+    <t>10/07/2023 10:00:35</t>
+  </si>
+  <si>
+    <t>10/07/2023 15:28:25</t>
+  </si>
+  <si>
+    <t>08/07/2023 12:21:16</t>
+  </si>
+  <si>
+    <t>03/07/2023 05:53:31</t>
+  </si>
+  <si>
+    <t>01/07/2023 10:57:47</t>
+  </si>
+  <si>
+    <t>05/07/2023 19:03:52</t>
+  </si>
+  <si>
+    <t>01/07/2023 09:37:05</t>
+  </si>
+  <si>
+    <t>04/07/2023 10:57:41</t>
+  </si>
+  <si>
+    <t>08/07/2023 11:49:46</t>
+  </si>
+  <si>
+    <t>07/07/2023 08:40:10</t>
+  </si>
+  <si>
+    <t>10/07/2023 15:44:50</t>
+  </si>
+  <si>
+    <t>02/07/2023 14:43:25</t>
+  </si>
+  <si>
+    <t>09/07/2023 12:57:16</t>
+  </si>
+  <si>
+    <t>08/07/2023 12:56:44</t>
+  </si>
+  <si>
+    <t>13/07/2023 01:07:21</t>
+  </si>
+  <si>
+    <t>12/07/2023 05:56:51</t>
+  </si>
+  <si>
+    <t>05/07/2023 17:40:10</t>
+  </si>
+  <si>
+    <t>13/07/2023 05:39:15</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1032,7 @@
         <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1055,7 +1052,7 @@
         <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1069,13 +1066,13 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
         <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1089,13 +1086,13 @@
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
         <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1109,13 +1106,13 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
         <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1129,13 +1126,13 @@
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
         <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1149,13 +1146,13 @@
         <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1175,7 +1172,7 @@
         <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1189,13 +1186,13 @@
         <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
         <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1209,13 +1206,13 @@
         <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
         <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1229,13 +1226,13 @@
         <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
         <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1249,13 +1246,13 @@
         <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
         <v>141</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1269,13 +1266,13 @@
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
         <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1289,13 +1286,13 @@
         <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1312,10 +1309,10 @@
         <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1329,13 +1326,13 @@
         <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1349,13 +1346,13 @@
         <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1369,13 +1366,13 @@
         <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1389,13 +1386,13 @@
         <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1412,10 +1409,10 @@
         <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1429,13 +1426,13 @@
         <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1449,13 +1446,13 @@
         <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1475,7 +1472,7 @@
         <v>151</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1489,13 +1486,13 @@
         <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
         <v>152</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1512,10 +1509,10 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1529,13 +1526,13 @@
         <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1549,13 +1546,13 @@
         <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
         <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1569,13 +1566,13 @@
         <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1589,13 +1586,13 @@
         <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1609,13 +1606,13 @@
         <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1629,13 +1626,13 @@
         <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1649,13 +1646,13 @@
         <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1669,13 +1666,13 @@
         <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1689,13 +1686,13 @@
         <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1709,13 +1706,13 @@
         <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1729,13 +1726,13 @@
         <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1749,13 +1746,13 @@
         <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1769,13 +1766,13 @@
         <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1789,13 +1786,13 @@
         <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1809,13 +1806,13 @@
         <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
